--- a/fermini_leale.xlsx
+++ b/fermini_leale.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/alanna_leale_wur_nl/Documents/2023_montpellier/experiments/weights/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/alanna_leale_wur_nl/Documents/2023_montpellier/experiments/data/weights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{8AA6E514-4721-3F45-A096-1DF4F0800EF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{6412871A-E87F-E648-83A3-BEC0D54A3D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33320" yWindow="500" windowWidth="29620" windowHeight="19400" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4657" uniqueCount="2113">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4658" uniqueCount="2114">
   <si>
     <t>Fermentation n° 4247</t>
   </si>
@@ -6383,6 +6383,9 @@
   </si>
   <si>
     <t>no</t>
+  </si>
+  <si>
+    <t>richness</t>
   </si>
 </sst>
 </file>
@@ -31463,15 +31466,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A009CA21-BF59-6542-B22D-5CCD8DF26820}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="18" t="s">
         <v>67</v>
       </c>
@@ -31493,8 +31496,11 @@
       <c r="G1" s="18" t="s">
         <v>2110</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="18" t="s">
+        <v>2113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="16" t="s">
         <v>36</v>
       </c>
@@ -31516,8 +31522,11 @@
       <c r="G2" s="18" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="16" t="s">
         <v>109</v>
       </c>
@@ -31539,8 +31548,11 @@
       <c r="G3" s="18" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="16" t="s">
         <v>155</v>
       </c>
@@ -31562,8 +31574,11 @@
       <c r="G4" s="18" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="16" t="s">
         <v>199</v>
       </c>
@@ -31585,8 +31600,11 @@
       <c r="G5" s="18" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="16" t="s">
         <v>238</v>
       </c>
@@ -31608,8 +31626,11 @@
       <c r="G6" s="23" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="16" t="s">
         <v>277</v>
       </c>
@@ -31631,8 +31652,11 @@
       <c r="G7" s="18" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="16" t="s">
         <v>313</v>
       </c>
@@ -31654,8 +31678,11 @@
       <c r="G8" s="23" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="16" t="s">
         <v>347</v>
       </c>
@@ -31677,8 +31704,11 @@
       <c r="G9" s="23" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9" s="18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="16" t="s">
         <v>382</v>
       </c>
@@ -31700,8 +31730,11 @@
       <c r="G10" s="23" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="16" t="s">
         <v>417</v>
       </c>
@@ -31723,8 +31756,11 @@
       <c r="G11" s="18" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="16" t="s">
         <v>452</v>
       </c>
@@ -31746,8 +31782,11 @@
       <c r="G12" s="18" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="16" t="s">
         <v>486</v>
       </c>
@@ -31769,8 +31808,11 @@
       <c r="G13" s="18" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="16" t="s">
         <v>522</v>
       </c>
@@ -31792,8 +31834,11 @@
       <c r="G14" s="23" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="16" t="s">
         <v>557</v>
       </c>
@@ -31815,8 +31860,11 @@
       <c r="G15" s="18" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="16" t="s">
         <v>594</v>
       </c>
@@ -31838,8 +31886,11 @@
       <c r="G16" s="23" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="16" t="s">
         <v>630</v>
       </c>
@@ -31861,8 +31912,11 @@
       <c r="G17" s="23" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="16" t="s">
         <v>667</v>
       </c>
@@ -31883,6 +31937,9 @@
       </c>
       <c r="G18" s="23" t="s">
         <v>2111</v>
+      </c>
+      <c r="H18" s="18">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/fermini_leale.xlsx
+++ b/fermini_leale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wageningenur4-my.sharepoint.com/personal/alanna_leale_wur_nl/Documents/2023_montpellier/experiments/data/weights/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{6412871A-E87F-E648-83A3-BEC0D54A3D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8_{EBA1C26D-7666-3545-BE6A-A292DBC4178C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33320" yWindow="500" windowWidth="29620" windowHeight="19400" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33320" yWindow="-2760" windowWidth="29620" windowHeight="19400" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="r1_raw" sheetId="2" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="r3" sheetId="6" r:id="rId7"/>
     <sheet name="r4" sheetId="7" r:id="rId8"/>
     <sheet name="META" sheetId="9" r:id="rId9"/>
+    <sheet name="read.me" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4658" uniqueCount="2114">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="4690" uniqueCount="2144">
   <si>
     <t>Fermentation n° 4247</t>
   </si>
@@ -6386,6 +6387,96 @@
   </si>
   <si>
     <t>richness</t>
+  </si>
+  <si>
+    <t>r1_raw</t>
+  </si>
+  <si>
+    <t>winter/spring 2023</t>
+  </si>
+  <si>
+    <t>Alanna Leale</t>
+  </si>
+  <si>
+    <t>Institut Agro - Montpellier</t>
+  </si>
+  <si>
+    <t>supervisors: D. Sicard, T. Nidelet</t>
+  </si>
+  <si>
+    <t>Excel Tab</t>
+  </si>
+  <si>
+    <t>r2_raw</t>
+  </si>
+  <si>
+    <t>replicate round 1: raw output from Fermini fermentation monitoring software. Variable "community" and "day" added manually</t>
+  </si>
+  <si>
+    <t>replicate round 2: "  "</t>
+  </si>
+  <si>
+    <t>replicate round 3: "  "</t>
+  </si>
+  <si>
+    <t>replicate round 4: "  "</t>
+  </si>
+  <si>
+    <t>r3_raw</t>
+  </si>
+  <si>
+    <t>r4_raw</t>
+  </si>
+  <si>
+    <t>r1</t>
+  </si>
+  <si>
+    <t>r2</t>
+  </si>
+  <si>
+    <t>r3</t>
+  </si>
+  <si>
+    <t>r4</t>
+  </si>
+  <si>
+    <t>summary output from fermentation round 1</t>
+  </si>
+  <si>
+    <t>summary output from fermentation round 2</t>
+  </si>
+  <si>
+    <t>summary output from fermentation round 3</t>
+  </si>
+  <si>
+    <t>summary output from fermentation round 4</t>
+  </si>
+  <si>
+    <t>weight of the fermenter (grams)</t>
+  </si>
+  <si>
+    <t>cumulative CO2 produced, as calcuated from change in fermenter weight (grams per litre)</t>
+  </si>
+  <si>
+    <t>Variables of interest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">community </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01 - C17 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">number of days since start (day 00) of fermentation </t>
+  </si>
+  <si>
+    <t>META</t>
+  </si>
+  <si>
+    <t>is B. bruxellensis (Bb), L. plantarum (Lp), S. cerevisiae (Sc), L. thermotolerans (Lt), S. bacillaris (Sb), or T. delbrueckii (Td) present in the community? (yes/no). Richness =number species in resident community (excludes Bb and Lp)</t>
   </si>
 </sst>
 </file>
@@ -6395,7 +6486,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.00&quot; &quot;[$€-40C];[Red]&quot;-&quot;#,##0.00&quot; &quot;[$€-40C]"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -6469,6 +6560,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -6552,7 +6650,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -6601,6 +6699,9 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -6623,9 +6724,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6663,7 +6764,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6769,7 +6870,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6911,7 +7012,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6922,7 +7023,7 @@
   <dimension ref="A1:K205"/>
   <sheetViews>
     <sheetView zoomScale="111" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -13255,6 +13356,163 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7406123D-B9FB-EE42-8CE5-197172A06909}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="184" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" t="s">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>2116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>2117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="24" t="s">
+        <v>2119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="24" t="s">
+        <v>2114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2121</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="24" t="s">
+        <v>2120</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="24" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2123</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="24" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="24" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="24" t="s">
+        <v>2128</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="24" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="24" t="s">
+        <v>2130</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2134</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="24" t="s">
+        <v>2142</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="24"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="24" t="s">
+        <v>2137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="24" t="s">
+        <v>2138</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="24" t="s">
+        <v>2140</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -31468,7 +31726,7 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A009CA21-BF59-6542-B22D-5CCD8DF26820}">
   <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
